--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2927.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2927.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.045182938219331</v>
+        <v>1.626469135284424</v>
       </c>
       <c r="B1">
-        <v>1.940458402122132</v>
+        <v>2.209495544433594</v>
       </c>
       <c r="C1">
-        <v>7.642545111688656</v>
+        <v>5.278173446655273</v>
       </c>
       <c r="D1">
-        <v>3.04603553506962</v>
+        <v>1.469803333282471</v>
       </c>
       <c r="E1">
-        <v>1.395421448965626</v>
+        <v>0.7792685627937317</v>
       </c>
     </row>
   </sheetData>
